--- a/results/initial_descriptives/combined/pasturerents_datalevel_crosstab.xlsx
+++ b/results/initial_descriptives/combined/pasturerents_datalevel_crosstab.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Pasture rents (NASS) data level</t>
   </si>
@@ -58,1175 +58,2470 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="275">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
+  <fonts count="569">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1237,7 +2532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="214">
+  <borders count="444">
     <border>
       <left/>
       <right/>
@@ -2736,11 +4031,1621 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -3591,6 +6496,926 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3603,359 +7428,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="442" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="212"/>
+      <c r="G1" s="442"/>
     </row>
     <row r="2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="368" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="430" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="431" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="205" t="s">
+      <c r="G2" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="206" t="s">
+      <c r="H2" s="436" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="437" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="208" t="s">
+      <c r="J2" s="438" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="209" t="s">
+      <c r="K2" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="184" t="s">
+      <c r="L2" s="412" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="193">
+      <c r="A3" s="422">
         <v>1982</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="227">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="228">
         <v>0</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="229">
         <v>0</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="230">
         <v>0</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="231">
         <v>0</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="232">
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="233">
         <v>0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="234">
         <v>0</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="235">
         <v>0</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="236">
         <v>0</v>
       </c>
-      <c r="L3" s="185">
+      <c r="L3" s="413">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="194">
+      <c r="A4" s="423">
         <v>1987</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="239">
         <v>0</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="240">
         <v>0</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="241">
         <v>0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="242">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="243">
         <v>0</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="244">
         <v>0</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="245">
         <v>0</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="246">
         <v>0</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="247">
         <v>0</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="248">
         <v>0</v>
       </c>
-      <c r="L4" s="186">
+      <c r="L4" s="414">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="195">
+      <c r="A5" s="424">
         <v>1992</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="251">
         <v>0</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="252">
         <v>0</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="253">
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="254">
         <v>0</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="255">
         <v>0</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="256">
         <v>0</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="257">
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="258">
         <v>0</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="259">
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="260">
         <v>0</v>
       </c>
-      <c r="L5" s="187">
+      <c r="L5" s="415">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="196">
+      <c r="A6" s="425">
         <v>1997</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="263">
         <v>0</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="264">
         <v>0</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="265">
         <v>0</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="266">
         <v>0</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="267">
         <v>0</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="268">
         <v>0</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="269">
         <v>997</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="270">
         <v>0</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="271">
         <v>2076</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="272">
         <v>0</v>
       </c>
-      <c r="L6" s="188">
+      <c r="L6" s="416">
         <v>3073</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="197">
+      <c r="A7" s="426">
         <v>2002</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="275">
         <v>0</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="276">
         <v>0</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="277">
         <v>0</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="278">
         <v>0</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="279">
         <v>887</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="280">
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="281">
         <v>0</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="282">
         <v>0</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="283">
         <v>2186</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="284">
         <v>0</v>
       </c>
-      <c r="L7" s="189">
+      <c r="L7" s="417">
         <v>3073</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="198">
+      <c r="A8" s="427">
         <v>2007</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="287">
         <v>0</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="288">
         <v>1969</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="289">
         <v>0</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="290">
         <v>747</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="291">
         <v>0</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="292">
         <v>95</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="293">
         <v>0</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="294">
         <v>0</v>
       </c>
-      <c r="J8" s="82">
+      <c r="J8" s="295">
         <v>0</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="296">
         <v>262</v>
       </c>
-      <c r="L8" s="190">
+      <c r="L8" s="418">
         <v>3073</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="199">
+      <c r="A9" s="428">
         <v>2012</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="299">
         <v>3</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="300">
         <v>0</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="301">
         <v>1781</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="302">
         <v>0</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="303">
         <v>42</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="304">
         <v>0</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="305">
         <v>0</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="306">
         <v>1089</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="307">
         <v>158</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="308">
         <v>0</v>
       </c>
-      <c r="L9" s="191">
+      <c r="L9" s="419">
         <v>3073</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="429">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="311">
+        <v>0</v>
+      </c>
+      <c r="C10" s="312">
+        <v>0</v>
+      </c>
+      <c r="D10" s="313">
+        <v>0</v>
+      </c>
+      <c r="E10" s="314">
+        <v>0</v>
+      </c>
+      <c r="F10" s="315">
+        <v>520</v>
+      </c>
+      <c r="G10" s="316">
+        <v>0</v>
+      </c>
+      <c r="H10" s="317">
+        <v>244</v>
+      </c>
+      <c r="I10" s="318">
+        <v>0</v>
+      </c>
+      <c r="J10" s="319">
+        <v>2309</v>
+      </c>
+      <c r="K10" s="320">
+        <v>0</v>
+      </c>
+      <c r="L10" s="420">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="390" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="164">
+      <c r="B11" s="391">
         <v>3</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C11" s="392">
         <v>1969</v>
       </c>
-      <c r="D10" s="166">
+      <c r="D11" s="393">
         <v>1781</v>
       </c>
-      <c r="E10" s="167">
+      <c r="E11" s="394">
         <v>747</v>
       </c>
-      <c r="F10" s="168">
-        <v>929</v>
-      </c>
-      <c r="G10" s="169">
+      <c r="F11" s="395">
+        <v>1449</v>
+      </c>
+      <c r="G11" s="396">
         <v>95</v>
       </c>
-      <c r="H10" s="170">
-        <v>997</v>
-      </c>
-      <c r="I10" s="171">
+      <c r="H11" s="397">
+        <v>1241</v>
+      </c>
+      <c r="I11" s="398">
         <v>1089</v>
       </c>
-      <c r="J10" s="172">
-        <v>4420</v>
-      </c>
-      <c r="K10" s="173">
+      <c r="J11" s="399">
+        <v>6729</v>
+      </c>
+      <c r="K11" s="400">
         <v>262</v>
       </c>
-      <c r="L10" s="192">
-        <v>12292</v>
+      <c r="L11" s="421">
+        <v>15365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
 </worksheet>

--- a/results/initial_descriptives/combined/pasturerents_datalevel_crosstab.xlsx
+++ b/results/initial_descriptives/combined/pasturerents_datalevel_crosstab.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Pasture rents (NASS) data level</t>
   </si>
@@ -58,2128 +58,3456 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="569">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
+  <fonts count="863">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2532,7 +3860,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="444">
+  <borders count="674">
     <border>
       <left/>
       <right/>
@@ -5641,11 +6969,1621 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="674">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -7416,6 +10354,926 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="568" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7432,393 +11290,394 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="F1" s="442" t="s">
+      <c r="F1" s="672" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="442"/>
+      <c r="G1" s="672"/>
     </row>
     <row r="2">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="598" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="430" t="s">
+      <c r="B2" s="660" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="431" t="s">
+      <c r="C2" s="661" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="432" t="s">
+      <c r="D2" s="662" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="433" t="s">
+      <c r="E2" s="663" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="434" t="s">
+      <c r="F2" s="664" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="435" t="s">
+      <c r="G2" s="665" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="436" t="s">
+      <c r="H2" s="666" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="437" t="s">
+      <c r="I2" s="667" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="438" t="s">
+      <c r="J2" s="668" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="439" t="s">
+      <c r="K2" s="669" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="412" t="s">
+      <c r="L2" s="642" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="422">
+      <c r="A3" s="652">
         <v>1982</v>
       </c>
-      <c r="B3" s="227">
+      <c r="B3" s="457">
         <v>0</v>
       </c>
-      <c r="C3" s="228">
+      <c r="C3" s="458">
         <v>0</v>
       </c>
-      <c r="D3" s="229">
+      <c r="D3" s="459">
         <v>0</v>
       </c>
-      <c r="E3" s="230">
+      <c r="E3" s="460">
         <v>0</v>
       </c>
-      <c r="F3" s="231">
+      <c r="F3" s="461">
         <v>0</v>
       </c>
-      <c r="G3" s="232">
+      <c r="G3" s="462">
         <v>0</v>
       </c>
-      <c r="H3" s="233">
+      <c r="H3" s="463">
         <v>0</v>
       </c>
-      <c r="I3" s="234">
+      <c r="I3" s="464">
         <v>0</v>
       </c>
-      <c r="J3" s="235">
+      <c r="J3" s="465">
         <v>0</v>
       </c>
-      <c r="K3" s="236">
+      <c r="K3" s="466">
         <v>0</v>
       </c>
-      <c r="L3" s="413">
+      <c r="L3" s="643">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="423">
+      <c r="A4" s="653">
         <v>1987</v>
       </c>
-      <c r="B4" s="239">
+      <c r="B4" s="469">
         <v>0</v>
       </c>
-      <c r="C4" s="240">
+      <c r="C4" s="470">
         <v>0</v>
       </c>
-      <c r="D4" s="241">
+      <c r="D4" s="471">
         <v>0</v>
       </c>
-      <c r="E4" s="242">
+      <c r="E4" s="472">
         <v>0</v>
       </c>
-      <c r="F4" s="243">
+      <c r="F4" s="473">
         <v>0</v>
       </c>
-      <c r="G4" s="244">
+      <c r="G4" s="474">
         <v>0</v>
       </c>
-      <c r="H4" s="245">
+      <c r="H4" s="475">
         <v>0</v>
       </c>
-      <c r="I4" s="246">
+      <c r="I4" s="476">
         <v>0</v>
       </c>
-      <c r="J4" s="247">
+      <c r="J4" s="477">
         <v>0</v>
       </c>
-      <c r="K4" s="248">
+      <c r="K4" s="478">
         <v>0</v>
       </c>
-      <c r="L4" s="414">
+      <c r="L4" s="644">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="424">
+      <c r="A5" s="654">
         <v>1992</v>
       </c>
-      <c r="B5" s="251">
+      <c r="B5" s="481">
         <v>0</v>
       </c>
-      <c r="C5" s="252">
+      <c r="C5" s="482">
         <v>0</v>
       </c>
-      <c r="D5" s="253">
+      <c r="D5" s="483">
         <v>0</v>
       </c>
-      <c r="E5" s="254">
+      <c r="E5" s="484">
         <v>0</v>
       </c>
-      <c r="F5" s="255">
+      <c r="F5" s="485">
         <v>0</v>
       </c>
-      <c r="G5" s="256">
+      <c r="G5" s="486">
         <v>0</v>
       </c>
-      <c r="H5" s="257">
+      <c r="H5" s="487">
         <v>0</v>
       </c>
-      <c r="I5" s="258">
+      <c r="I5" s="488">
         <v>0</v>
       </c>
-      <c r="J5" s="259">
+      <c r="J5" s="489">
         <v>0</v>
       </c>
-      <c r="K5" s="260">
+      <c r="K5" s="490">
         <v>0</v>
       </c>
-      <c r="L5" s="415">
+      <c r="L5" s="645">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="425">
+      <c r="A6" s="655">
         <v>1997</v>
       </c>
-      <c r="B6" s="263">
+      <c r="B6" s="493">
         <v>0</v>
       </c>
-      <c r="C6" s="264">
+      <c r="C6" s="494">
         <v>0</v>
       </c>
-      <c r="D6" s="265">
+      <c r="D6" s="495">
         <v>0</v>
       </c>
-      <c r="E6" s="266">
+      <c r="E6" s="496">
         <v>0</v>
       </c>
-      <c r="F6" s="267">
+      <c r="F6" s="497">
         <v>0</v>
       </c>
-      <c r="G6" s="268">
+      <c r="G6" s="498">
         <v>0</v>
       </c>
-      <c r="H6" s="269">
+      <c r="H6" s="499">
         <v>997</v>
       </c>
-      <c r="I6" s="270">
+      <c r="I6" s="500">
         <v>0</v>
       </c>
-      <c r="J6" s="271">
+      <c r="J6" s="501">
         <v>2076</v>
       </c>
-      <c r="K6" s="272">
+      <c r="K6" s="502">
         <v>0</v>
       </c>
-      <c r="L6" s="416">
+      <c r="L6" s="646">
         <v>3073</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="426">
+      <c r="A7" s="656">
         <v>2002</v>
       </c>
-      <c r="B7" s="275">
+      <c r="B7" s="505">
         <v>0</v>
       </c>
-      <c r="C7" s="276">
+      <c r="C7" s="506">
         <v>0</v>
       </c>
-      <c r="D7" s="277">
+      <c r="D7" s="507">
         <v>0</v>
       </c>
-      <c r="E7" s="278">
+      <c r="E7" s="508">
         <v>0</v>
       </c>
-      <c r="F7" s="279">
+      <c r="F7" s="509">
         <v>887</v>
       </c>
-      <c r="G7" s="280">
+      <c r="G7" s="510">
         <v>0</v>
       </c>
-      <c r="H7" s="281">
+      <c r="H7" s="511">
         <v>0</v>
       </c>
-      <c r="I7" s="282">
+      <c r="I7" s="512">
         <v>0</v>
       </c>
-      <c r="J7" s="283">
+      <c r="J7" s="513">
         <v>2186</v>
       </c>
-      <c r="K7" s="284">
+      <c r="K7" s="514">
         <v>0</v>
       </c>
-      <c r="L7" s="417">
+      <c r="L7" s="647">
         <v>3073</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="427">
+      <c r="A8" s="657">
         <v>2007</v>
       </c>
-      <c r="B8" s="287">
+      <c r="B8" s="517">
         <v>0</v>
       </c>
-      <c r="C8" s="288">
+      <c r="C8" s="518">
         <v>1969</v>
       </c>
-      <c r="D8" s="289">
+      <c r="D8" s="519">
         <v>0</v>
       </c>
-      <c r="E8" s="290">
+      <c r="E8" s="520">
         <v>747</v>
       </c>
-      <c r="F8" s="291">
+      <c r="F8" s="521">
         <v>0</v>
       </c>
-      <c r="G8" s="292">
+      <c r="G8" s="522">
         <v>95</v>
       </c>
-      <c r="H8" s="293">
+      <c r="H8" s="523">
         <v>0</v>
       </c>
-      <c r="I8" s="294">
+      <c r="I8" s="524">
         <v>0</v>
       </c>
-      <c r="J8" s="295">
+      <c r="J8" s="525">
         <v>0</v>
       </c>
-      <c r="K8" s="296">
+      <c r="K8" s="526">
         <v>262</v>
       </c>
-      <c r="L8" s="418">
+      <c r="L8" s="648">
         <v>3073</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="428">
+      <c r="A9" s="658">
         <v>2012</v>
       </c>
-      <c r="B9" s="299">
+      <c r="B9" s="529">
         <v>3</v>
       </c>
-      <c r="C9" s="300">
+      <c r="C9" s="530">
         <v>0</v>
       </c>
-      <c r="D9" s="301">
+      <c r="D9" s="531">
         <v>1781</v>
       </c>
-      <c r="E9" s="302">
+      <c r="E9" s="532">
         <v>0</v>
       </c>
-      <c r="F9" s="303">
+      <c r="F9" s="533">
         <v>42</v>
       </c>
-      <c r="G9" s="304">
+      <c r="G9" s="534">
         <v>0</v>
       </c>
-      <c r="H9" s="305">
+      <c r="H9" s="535">
         <v>0</v>
       </c>
-      <c r="I9" s="306">
+      <c r="I9" s="536">
         <v>1089</v>
       </c>
-      <c r="J9" s="307">
+      <c r="J9" s="537">
         <v>158</v>
       </c>
-      <c r="K9" s="308">
+      <c r="K9" s="538">
         <v>0</v>
       </c>
-      <c r="L9" s="419">
+      <c r="L9" s="649">
         <v>3073</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="429">
+      <c r="A10" s="659">
         <v>2015</v>
       </c>
-      <c r="B10" s="311">
+      <c r="B10" s="541">
         <v>0</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="542">
         <v>0</v>
       </c>
-      <c r="D10" s="313">
+      <c r="D10" s="543">
         <v>0</v>
       </c>
-      <c r="E10" s="314">
+      <c r="E10" s="544">
         <v>0</v>
       </c>
-      <c r="F10" s="315">
+      <c r="F10" s="545">
         <v>520</v>
       </c>
-      <c r="G10" s="316">
+      <c r="G10" s="546">
         <v>0</v>
       </c>
-      <c r="H10" s="317">
+      <c r="H10" s="547">
         <v>244</v>
       </c>
-      <c r="I10" s="318">
+      <c r="I10" s="548">
         <v>0</v>
       </c>
-      <c r="J10" s="319">
+      <c r="J10" s="549">
         <v>2309</v>
       </c>
-      <c r="K10" s="320">
+      <c r="K10" s="550">
         <v>0</v>
       </c>
-      <c r="L10" s="420">
+      <c r="L10" s="650">
         <v>3073</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="391">
+      <c r="B11" s="621">
         <v>3</v>
       </c>
-      <c r="C11" s="392">
+      <c r="C11" s="622">
         <v>1969</v>
       </c>
-      <c r="D11" s="393">
+      <c r="D11" s="623">
         <v>1781</v>
       </c>
-      <c r="E11" s="394">
+      <c r="E11" s="624">
         <v>747</v>
       </c>
-      <c r="F11" s="395">
+      <c r="F11" s="625">
         <v>1449</v>
       </c>
-      <c r="G11" s="396">
+      <c r="G11" s="626">
         <v>95</v>
       </c>
-      <c r="H11" s="397">
+      <c r="H11" s="627">
         <v>1241</v>
       </c>
-      <c r="I11" s="398">
+      <c r="I11" s="628">
         <v>1089</v>
       </c>
-      <c r="J11" s="399">
+      <c r="J11" s="629">
         <v>6729</v>
       </c>
-      <c r="K11" s="400">
+      <c r="K11" s="630">
         <v>262</v>
       </c>
-      <c r="L11" s="421">
+      <c r="L11" s="651">
         <v>15365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>

--- a/results/initial_descriptives/combined/pasturerents_datalevel_crosstab.xlsx
+++ b/results/initial_descriptives/combined/pasturerents_datalevel_crosstab.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Pasture rents (NASS) data level</t>
   </si>
@@ -58,2128 +58,3456 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="863">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <b/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
+  <fonts count="1157">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3860,7 +5188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="674">
+  <borders count="904">
     <border>
       <left/>
       <right/>
@@ -8579,11 +9907,1621 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="674">
+  <cellXfs count="904">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -11274,6 +14212,926 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="862" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="0" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="0" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="0" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="0" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="0" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="0" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="0" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="0" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="0" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="0" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="0" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="0" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="0" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="0" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="0" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="0" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="0" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="0" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="0" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="0" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="0" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="0" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="0" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="0" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="0" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="0" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="0" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="0" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="0" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="0" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="0" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="0" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1124" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1126" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1130" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1132" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1136" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1138" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1150" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1156" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11290,393 +15148,394 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="F1" s="672" t="s">
+      <c r="F1" s="902" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="672"/>
+      <c r="G1" s="902"/>
     </row>
     <row r="2">
-      <c r="A2" s="598" t="s">
+      <c r="A2" s="828" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="660" t="s">
+      <c r="B2" s="890" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="661" t="s">
+      <c r="C2" s="891" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="662" t="s">
+      <c r="D2" s="892" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="663" t="s">
+      <c r="E2" s="893" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="664" t="s">
+      <c r="F2" s="894" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="895" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="666" t="s">
+      <c r="H2" s="896" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="667" t="s">
+      <c r="I2" s="897" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="668" t="s">
+      <c r="J2" s="898" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="669" t="s">
+      <c r="K2" s="899" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="642" t="s">
+      <c r="L2" s="872" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="652">
+      <c r="A3" s="882">
         <v>1982</v>
       </c>
-      <c r="B3" s="457">
+      <c r="B3" s="687">
         <v>0</v>
       </c>
-      <c r="C3" s="458">
+      <c r="C3" s="688">
         <v>0</v>
       </c>
-      <c r="D3" s="459">
+      <c r="D3" s="689">
         <v>0</v>
       </c>
-      <c r="E3" s="460">
+      <c r="E3" s="690">
         <v>0</v>
       </c>
-      <c r="F3" s="461">
+      <c r="F3" s="691">
         <v>0</v>
       </c>
-      <c r="G3" s="462">
+      <c r="G3" s="692">
         <v>0</v>
       </c>
-      <c r="H3" s="463">
+      <c r="H3" s="693">
         <v>0</v>
       </c>
-      <c r="I3" s="464">
+      <c r="I3" s="694">
         <v>0</v>
       </c>
-      <c r="J3" s="465">
+      <c r="J3" s="695">
         <v>0</v>
       </c>
-      <c r="K3" s="466">
+      <c r="K3" s="696">
         <v>0</v>
       </c>
-      <c r="L3" s="643">
+      <c r="L3" s="873">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="653">
+      <c r="A4" s="883">
         <v>1987</v>
       </c>
-      <c r="B4" s="469">
+      <c r="B4" s="699">
         <v>0</v>
       </c>
-      <c r="C4" s="470">
+      <c r="C4" s="700">
         <v>0</v>
       </c>
-      <c r="D4" s="471">
+      <c r="D4" s="701">
         <v>0</v>
       </c>
-      <c r="E4" s="472">
+      <c r="E4" s="702">
         <v>0</v>
       </c>
-      <c r="F4" s="473">
+      <c r="F4" s="703">
         <v>0</v>
       </c>
-      <c r="G4" s="474">
+      <c r="G4" s="704">
         <v>0</v>
       </c>
-      <c r="H4" s="475">
+      <c r="H4" s="705">
         <v>0</v>
       </c>
-      <c r="I4" s="476">
+      <c r="I4" s="706">
         <v>0</v>
       </c>
-      <c r="J4" s="477">
+      <c r="J4" s="707">
         <v>0</v>
       </c>
-      <c r="K4" s="478">
+      <c r="K4" s="708">
         <v>0</v>
       </c>
-      <c r="L4" s="644">
+      <c r="L4" s="874">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="654">
+      <c r="A5" s="884">
         <v>1992</v>
       </c>
-      <c r="B5" s="481">
+      <c r="B5" s="711">
         <v>0</v>
       </c>
-      <c r="C5" s="482">
+      <c r="C5" s="712">
         <v>0</v>
       </c>
-      <c r="D5" s="483">
+      <c r="D5" s="713">
         <v>0</v>
       </c>
-      <c r="E5" s="484">
+      <c r="E5" s="714">
         <v>0</v>
       </c>
-      <c r="F5" s="485">
+      <c r="F5" s="715">
         <v>0</v>
       </c>
-      <c r="G5" s="486">
+      <c r="G5" s="716">
         <v>0</v>
       </c>
-      <c r="H5" s="487">
+      <c r="H5" s="717">
         <v>0</v>
       </c>
-      <c r="I5" s="488">
+      <c r="I5" s="718">
         <v>0</v>
       </c>
-      <c r="J5" s="489">
+      <c r="J5" s="719">
         <v>0</v>
       </c>
-      <c r="K5" s="490">
+      <c r="K5" s="720">
         <v>0</v>
       </c>
-      <c r="L5" s="645">
+      <c r="L5" s="875">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="655">
+      <c r="A6" s="885">
         <v>1997</v>
       </c>
-      <c r="B6" s="493">
+      <c r="B6" s="723">
         <v>0</v>
       </c>
-      <c r="C6" s="494">
+      <c r="C6" s="724">
         <v>0</v>
       </c>
-      <c r="D6" s="495">
+      <c r="D6" s="725">
         <v>0</v>
       </c>
-      <c r="E6" s="496">
+      <c r="E6" s="726">
         <v>0</v>
       </c>
-      <c r="F6" s="497">
+      <c r="F6" s="727">
         <v>0</v>
       </c>
-      <c r="G6" s="498">
+      <c r="G6" s="728">
         <v>0</v>
       </c>
-      <c r="H6" s="499">
+      <c r="H6" s="729">
         <v>997</v>
       </c>
-      <c r="I6" s="500">
+      <c r="I6" s="730">
         <v>0</v>
       </c>
-      <c r="J6" s="501">
+      <c r="J6" s="731">
         <v>2076</v>
       </c>
-      <c r="K6" s="502">
+      <c r="K6" s="732">
         <v>0</v>
       </c>
-      <c r="L6" s="646">
+      <c r="L6" s="876">
         <v>3073</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="656">
+      <c r="A7" s="886">
         <v>2002</v>
       </c>
-      <c r="B7" s="505">
+      <c r="B7" s="735">
         <v>0</v>
       </c>
-      <c r="C7" s="506">
+      <c r="C7" s="736">
         <v>0</v>
       </c>
-      <c r="D7" s="507">
+      <c r="D7" s="737">
         <v>0</v>
       </c>
-      <c r="E7" s="508">
+      <c r="E7" s="738">
         <v>0</v>
       </c>
-      <c r="F7" s="509">
+      <c r="F7" s="739">
         <v>887</v>
       </c>
-      <c r="G7" s="510">
+      <c r="G7" s="740">
         <v>0</v>
       </c>
-      <c r="H7" s="511">
+      <c r="H7" s="741">
         <v>0</v>
       </c>
-      <c r="I7" s="512">
+      <c r="I7" s="742">
         <v>0</v>
       </c>
-      <c r="J7" s="513">
+      <c r="J7" s="743">
         <v>2186</v>
       </c>
-      <c r="K7" s="514">
+      <c r="K7" s="744">
         <v>0</v>
       </c>
-      <c r="L7" s="647">
+      <c r="L7" s="877">
         <v>3073</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="657">
+      <c r="A8" s="887">
         <v>2007</v>
       </c>
-      <c r="B8" s="517">
+      <c r="B8" s="747">
         <v>0</v>
       </c>
-      <c r="C8" s="518">
+      <c r="C8" s="748">
         <v>1969</v>
       </c>
-      <c r="D8" s="519">
+      <c r="D8" s="749">
         <v>0</v>
       </c>
-      <c r="E8" s="520">
+      <c r="E8" s="750">
         <v>747</v>
       </c>
-      <c r="F8" s="521">
+      <c r="F8" s="751">
         <v>0</v>
       </c>
-      <c r="G8" s="522">
+      <c r="G8" s="752">
         <v>95</v>
       </c>
-      <c r="H8" s="523">
+      <c r="H8" s="753">
         <v>0</v>
       </c>
-      <c r="I8" s="524">
+      <c r="I8" s="754">
         <v>0</v>
       </c>
-      <c r="J8" s="525">
+      <c r="J8" s="755">
         <v>0</v>
       </c>
-      <c r="K8" s="526">
+      <c r="K8" s="756">
         <v>262</v>
       </c>
-      <c r="L8" s="648">
+      <c r="L8" s="878">
         <v>3073</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="658">
+      <c r="A9" s="888">
         <v>2012</v>
       </c>
-      <c r="B9" s="529">
+      <c r="B9" s="759">
         <v>3</v>
       </c>
-      <c r="C9" s="530">
+      <c r="C9" s="760">
         <v>0</v>
       </c>
-      <c r="D9" s="531">
+      <c r="D9" s="761">
         <v>1781</v>
       </c>
-      <c r="E9" s="532">
+      <c r="E9" s="762">
         <v>0</v>
       </c>
-      <c r="F9" s="533">
+      <c r="F9" s="763">
         <v>42</v>
       </c>
-      <c r="G9" s="534">
+      <c r="G9" s="764">
         <v>0</v>
       </c>
-      <c r="H9" s="535">
+      <c r="H9" s="765">
         <v>0</v>
       </c>
-      <c r="I9" s="536">
+      <c r="I9" s="766">
         <v>1089</v>
       </c>
-      <c r="J9" s="537">
+      <c r="J9" s="767">
         <v>158</v>
       </c>
-      <c r="K9" s="538">
+      <c r="K9" s="768">
         <v>0</v>
       </c>
-      <c r="L9" s="649">
+      <c r="L9" s="879">
         <v>3073</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="659">
+      <c r="A10" s="889">
         <v>2015</v>
       </c>
-      <c r="B10" s="541">
+      <c r="B10" s="771">
         <v>0</v>
       </c>
-      <c r="C10" s="542">
+      <c r="C10" s="772">
         <v>0</v>
       </c>
-      <c r="D10" s="543">
+      <c r="D10" s="773">
         <v>0</v>
       </c>
-      <c r="E10" s="544">
+      <c r="E10" s="774">
         <v>0</v>
       </c>
-      <c r="F10" s="545">
+      <c r="F10" s="775">
         <v>520</v>
       </c>
-      <c r="G10" s="546">
+      <c r="G10" s="776">
         <v>0</v>
       </c>
-      <c r="H10" s="547">
+      <c r="H10" s="777">
         <v>244</v>
       </c>
-      <c r="I10" s="548">
+      <c r="I10" s="778">
         <v>0</v>
       </c>
-      <c r="J10" s="549">
+      <c r="J10" s="779">
         <v>2309</v>
       </c>
-      <c r="K10" s="550">
+      <c r="K10" s="780">
         <v>0</v>
       </c>
-      <c r="L10" s="650">
+      <c r="L10" s="880">
         <v>3073</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="620" t="s">
+      <c r="A11" s="850" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="621">
+      <c r="B11" s="851">
         <v>3</v>
       </c>
-      <c r="C11" s="622">
+      <c r="C11" s="852">
         <v>1969</v>
       </c>
-      <c r="D11" s="623">
+      <c r="D11" s="853">
         <v>1781</v>
       </c>
-      <c r="E11" s="624">
+      <c r="E11" s="854">
         <v>747</v>
       </c>
-      <c r="F11" s="625">
+      <c r="F11" s="855">
         <v>1449</v>
       </c>
-      <c r="G11" s="626">
+      <c r="G11" s="856">
         <v>95</v>
       </c>
-      <c r="H11" s="627">
+      <c r="H11" s="857">
         <v>1241</v>
       </c>
-      <c r="I11" s="628">
+      <c r="I11" s="858">
         <v>1089</v>
       </c>
-      <c r="J11" s="629">
+      <c r="J11" s="859">
         <v>6729</v>
       </c>
-      <c r="K11" s="630">
+      <c r="K11" s="860">
         <v>262</v>
       </c>
-      <c r="L11" s="651">
+      <c r="L11" s="881">
         <v>15365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F1:G1"/>
